--- a/pred_ohlcv/54_21/2019-11-01 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 POWR ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>116911.7508</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -782,7 +782,7 @@
         <v>99791.60280000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -912,7 +912,7 @@
         <v>108364.70052375</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>104946.50162375</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>105269.85662375</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>238795.76132375</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>237943.62047748</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>264469.09557748</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>226640.63137748</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>226640.63137748</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>208573.73357748</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>197464.21837748</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>125563.65357748</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>125405.38337748</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>108767.75997748</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>92130.13637748003</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>92130.13637748003</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>51132.01347748004</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>22382.45107748004</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>22382.45107748004</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>24842.68147748004</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>26842.68147748004</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5625.653377480045</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 POWR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>117019.4217</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>116427.7665</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>116427.7665</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>118398.7665</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>118398.7665</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>118398.7665</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>116911.7508</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -782,7 +782,7 @@
         <v>99791.60280000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -912,7 +912,7 @@
         <v>108364.70052375</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>104946.50162375</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>105269.85662375</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>226640.63137748</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>226640.63137748</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>125563.65357748</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>125405.38337748</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>108767.75997748</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>92130.13637748003</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>92130.13637748003</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>51132.01347748004</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>22382.45107748004</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5625.653377480045</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
